--- a/biology/Botanique/Accrue/Accrue.xlsx
+++ b/biology/Botanique/Accrue/Accrue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une accrue ou accroissement est un terme d'agronomie ou de droit qui désigne l'accroissement d'une chose, d'une valeur, d'un fonds territorial; en droit c'est l'action par laquelle cela accroît au profit du possesseur. Les terres que l'atterrissement ajoute à une rive ou un rivage – Un atterrissement est un amas de terre qui se forme par la vase ou par les sédiments, en termes de droit on parle d'alluvion, que la mer ou les fleuves apportent progressivement le long d'une rive ou d'un rivage – appartiennent au propriétaire par droit d'accroissement[1]. Cet accroissement peut donc être de différentes natures:
-un terrain sur lequel un bois s’est étendu de lui-même par les rejetons des racines, ou par le semis naturel des graines tombées des arbres[2];
-l'augmentation que reçoit un terrain par la retraite insensible des eaux ou par atterrissement[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une accrue ou accroissement est un terme d'agronomie ou de droit qui désigne l'accroissement d'une chose, d'une valeur, d'un fonds territorial; en droit c'est l'action par laquelle cela accroît au profit du possesseur. Les terres que l'atterrissement ajoute à une rive ou un rivage – Un atterrissement est un amas de terre qui se forme par la vase ou par les sédiments, en termes de droit on parle d'alluvion, que la mer ou les fleuves apportent progressivement le long d'une rive ou d'un rivage – appartiennent au propriétaire par droit d'accroissement. Cet accroissement peut donc être de différentes natures:
+un terrain sur lequel un bois s’est étendu de lui-même par les rejetons des racines, ou par le semis naturel des graines tombées des arbres;
+l'augmentation que reçoit un terrain par la retraite insensible des eaux ou par atterrissement.
 En droit romain les accrues sont régies par l'accessio. En droit moderne les accrues sont des cas d'accession immobilière naturelle, régies en France par les articles 556 à 563 du code civil français.
 </t>
         </is>
@@ -514,10 +526,12 @@
           <t>Accrue forestière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XVIIIe siècle, les accrues de bois suivant la coutume de Troyes n'acquièrent que la possession actuelle au propriétaire de la forêt avec un commencement de prescription mais le propriétaire du terrain de l'accrue ne perd son droit qu après une prescription de trente années contre lui. Suivant les coutumes de Sens et d'Auxerre les accrues appartiennent au seigneur haut justicier comme biens vacants, si personne n'est en possession des héritages où elles se trouvent, autrement elles appartiennent aux propriétaires de ces héritages[4].  
-Selon Sonnini en 1805, l’accrue encore jeune appartient au propriétaire du sol; mais, s’il laisse écouler trente années sans exiger que le bois voisin de sa terre en soit séparé par un fossé, ainsi que l’ordonnent les règlements, l’accrue fait irrévocablement partie de la forêt qui l’a produite[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XVIIIe siècle, les accrues de bois suivant la coutume de Troyes n'acquièrent que la possession actuelle au propriétaire de la forêt avec un commencement de prescription mais le propriétaire du terrain de l'accrue ne perd son droit qu après une prescription de trente années contre lui. Suivant les coutumes de Sens et d'Auxerre les accrues appartiennent au seigneur haut justicier comme biens vacants, si personne n'est en possession des héritages où elles se trouvent, autrement elles appartiennent aux propriétaires de ces héritages.  
+Selon Sonnini en 1805, l’accrue encore jeune appartient au propriétaire du sol; mais, s’il laisse écouler trente années sans exiger que le bois voisin de sa terre en soit séparé par un fossé, ainsi que l’ordonnent les règlements, l’accrue fait irrévocablement partie de la forêt qui l’a produite.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Accroissement par alluvion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les atterrissements et accroissements qui se forment successivement et imperceptiblement aux fonds riverains d'un cours d'eau s'appellent « alluvion » (C'est la définition de l'article 556 de code civil français). L'accroissement d'un héritage par alluvion est l'accroissement de terrain qui se fait peu à peu sur les rivages de la mer ou les rives des fleuves et des rivières par les terres que l'eau y apporte. Elle appartient au propriétaire de l'héritage accru; et celui de l'héritage diminué n'a aucun droit de revendication quand l'accroissement s'est fait insensiblement. C’est la disposition du droit romain. Il n'en est pas de même quand l'accroissement s'est fait subitement par suite d'une inondation ou par quelque autre causes fortuites, ce n’est plus la même chose; dans certains pays il y a des rivières et des torrents qui changent si fréquemment leur lit, même plusieurs fois dans l'année qu'on ne leur applique pas cette loi. Là les propriétés riveraines doivent toujours rester de la même contenance. Les accrues de la mer et les îles et îlots formées dans les rivières navigables appartiennent au domaine public qui les vend ou concède[5].
-Au XVIIIe siècle, Dans quelques provinces, la Franche-Comté par exemple, l’accroissement par alluvion n’appartient pas au propriétaire de l’héritage accru. « La rivière du Doux n’ôte ni ne baille ». C’est l’adage du pays ; ce qui signifie que celui dont cette rivière diminue l'héritage en l'inondant peut prendre son indemnité sur les terrains qu'elle laisse à découvert. Il en est de même dans les héritages voisins de la rivière de la Fère en Auvergne dont la coutume locale établit le même droit[4].
-Au XVIIIe siècle,Les îles et îlots formés successivement au milieu des fleuves et des grandes rivières, du Rhône, par exemple, n’appartiennent point aux riverains, mais aux domaines du roi[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les atterrissements et accroissements qui se forment successivement et imperceptiblement aux fonds riverains d'un cours d'eau s'appellent « alluvion » (C'est la définition de l'article 556 de code civil français). L'accroissement d'un héritage par alluvion est l'accroissement de terrain qui se fait peu à peu sur les rivages de la mer ou les rives des fleuves et des rivières par les terres que l'eau y apporte. Elle appartient au propriétaire de l'héritage accru; et celui de l'héritage diminué n'a aucun droit de revendication quand l'accroissement s'est fait insensiblement. C’est la disposition du droit romain. Il n'en est pas de même quand l'accroissement s'est fait subitement par suite d'une inondation ou par quelque autre causes fortuites, ce n’est plus la même chose; dans certains pays il y a des rivières et des torrents qui changent si fréquemment leur lit, même plusieurs fois dans l'année qu'on ne leur applique pas cette loi. Là les propriétés riveraines doivent toujours rester de la même contenance. Les accrues de la mer et les îles et îlots formées dans les rivières navigables appartiennent au domaine public qui les vend ou concède.
+Au XVIIIe siècle, Dans quelques provinces, la Franche-Comté par exemple, l’accroissement par alluvion n’appartient pas au propriétaire de l’héritage accru. « La rivière du Doux n’ôte ni ne baille ». C’est l’adage du pays ; ce qui signifie que celui dont cette rivière diminue l'héritage en l'inondant peut prendre son indemnité sur les terrains qu'elle laisse à découvert. Il en est de même dans les héritages voisins de la rivière de la Fère en Auvergne dont la coutume locale établit le même droit.
+Au XVIIIe siècle,Les îles et îlots formés successivement au milieu des fleuves et des grandes rivières, du Rhône, par exemple, n’appartiennent point aux riverains, mais aux domaines du roi.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>En droit français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La propriété des alluvions, relais, atterrissements, îles et îlots qui se forment naturellement dans les fleuves et rivières domaniaux est réglée par les dispositions des articles 556, 557, 560 et 562 du code civil. La propriété des alluvions, relais, atterrissements, îles et îlots qui se forment dans les cours d'eau non domaniaux est régie par les dispositions des articles 556, 557, 559, 561 et 562 du code civil.
 Les atterrissements et accroissements qui se forment successivement et imperceptiblement aux fonds riverains d'un cours d'eau s'appellent " alluvion ". L'alluvion profite au propriétaire riverain, qu'il s'agisse d'un cours d'eau domanial ou non ; à la charge, dans le premier cas, de laisser le marchepied ou chemin de halage, conformément aux règlements. (Article 556)
